--- a/Blatt07/aufgabe2_e_DP.xlsx
+++ b/Blatt07/aufgabe2_e_DP.xlsx
@@ -100,15 +100,17 @@
 f({2,4}) + f({3}) = 9 + 6 = 15</t>
   </si>
   <si>
-    <t>f({1},{2,3,4}) = 5 + 15 = 20
+    <t>{2},{1,3,4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f({1},{2,3,4}) = 5 + 15 = 20
+ f({2},{1,3,4}) =  4 + 17 = 21
+f({3},{1,2,4}) = 6 + 14 = 20
+f({4},{1,2,3}) =  15 + 4 = 19
 f({1,2},{3,4}) = 9 + 10 = 19
-f({1,2,3},{4}) =  15 + 4 = 19
-f({2},{1,3,4}) =  4 + 17 = 21
+f({1,3},{2,4}) = 9 + 11 = 20 
 f({2,3},{1,4}) =  10 + 9 = 19
-f({3},{1,2,4}) = 6 + 14 = 20</t>
-  </si>
-  <si>
-    <t>{2},{1,3,4}</t>
+</t>
   </si>
 </sst>
 </file>
@@ -170,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -194,6 +196,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -517,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,10 +557,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4">
         <v>1</v>
       </c>
@@ -567,10 +572,10 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>4</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4">
         <v>2</v>
       </c>
@@ -582,10 +587,10 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4">
         <v>3</v>
       </c>
@@ -597,10 +602,10 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
@@ -778,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -786,10 +791,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E16" s="4">
         <v>21</v>
@@ -798,14 +803,14 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
